--- a/CurrentCatheter.xlsx
+++ b/CurrentCatheter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Materials</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
   <si>
     <t>Soft, black</t>
@@ -425,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +462,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -483,7 +477,7 @@
         <v>1.98</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>0.5</v>
@@ -491,7 +485,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -506,12 +500,12 @@
         <v>1.17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -526,22 +520,6 @@
         <v>1.17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>

--- a/CurrentCatheter.xlsx
+++ b/CurrentCatheter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Materials</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Heat Time</t>
   </si>
   <si>
-    <t>Xi (distance between pin wall to catheter wall)</t>
-  </si>
-  <si>
     <t>Yi (Dist end of grippers to bending pin)</t>
   </si>
   <si>
@@ -56,6 +53,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <t>Soft, black</t>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,16 +459,13 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>4.25</v>
@@ -477,18 +477,21 @@
         <v>1.98</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>0.5</v>
       </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>42</v>
@@ -500,18 +503,24 @@
         <v>1.17</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>711.2</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>1.67</v>
@@ -520,7 +529,65 @@
         <v>1.17</v>
       </c>
       <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>1.67</v>
+      </c>
+      <c r="E5">
+        <v>1.17</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>1.33</v>
+      </c>
+      <c r="E6">
+        <v>1.17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/CurrentCatheter.xlsx
+++ b/CurrentCatheter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Materials</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
   <si>
     <t>Soft, black</t>
@@ -422,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +456,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -477,18 +471,15 @@
         <v>1.98</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -503,24 +494,18 @@
         <v>1.17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>711.2</v>
       </c>
       <c r="D4">
         <v>1.67</v>
@@ -529,65 +514,7 @@
         <v>1.17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>1.67</v>
-      </c>
-      <c r="E5">
-        <v>1.17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>1.33</v>
-      </c>
-      <c r="E6">
-        <v>1.17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/CurrentCatheter.xlsx
+++ b/CurrentCatheter.xlsx
@@ -476,6 +476,9 @@
       <c r="H2">
         <v>0.5</v>
       </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
@@ -496,6 +499,12 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
@@ -515,6 +524,12 @@
       </c>
       <c r="F4" t="s">
         <v>14</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/CurrentCatheter.xlsx
+++ b/CurrentCatheter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Materials</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Heat Time</t>
   </si>
   <si>
-    <t>Xi (distance between pin wall to catheter wall)</t>
-  </si>
-  <si>
     <t>Yi (Dist end of grippers to bending pin)</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>Soft, black</t>
@@ -70,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,11 +128,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -217,7 +206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,7 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,16 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,79 +453,83 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D2">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="E2">
-        <v>1.98</v>
+        <v>1.2</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>0.5</v>
       </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>800</v>
       </c>
       <c r="D3">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="E3">
         <v>1.17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>711.2</v>
       </c>
       <c r="D4">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="E4">
         <v>1.17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
         <v>14</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
